--- a/pred_ohlcv/54_21/2020-01-20 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 RNT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>89037.53832069701</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>59037.53832069701</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>59037.53832069701</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-499127.5655150459</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-448977.2443977557</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-448927.2443977557</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-448927.2443977557</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-449027.2443977557</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-456882.1443977557</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-541716.9205688359</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-314884.0700814259</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-153356.9787814259</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-153519.4787814259</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-153469.4787814259</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-165039.4787814259</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-164989.4787814259</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-170739.4787814259</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-178694.2720814259</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-225017.4714814259</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-220806.3740814259</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-220756.3740814259</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1129693.703181426</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1140470.909481426</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1141494.259081426</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 RNT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>89037.53832069701</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>59037.53832069701</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>59037.53832069701</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-499127.5655150459</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-448977.2443977557</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-448927.2443977557</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-448927.2443977557</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-449027.2443977557</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-456882.1443977557</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-456831.1443977557</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-456831.1443977557</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-456780.6898977557</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-456882.1611977557</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-456781.6056977556</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-545345.9816977556</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-545290.9816977556</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-545341.9816977556</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-545341.9816977556</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-546770.9298977556</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-541716.9205688359</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-547415.1045688359</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-314884.0700814259</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-150467.3628814259</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-150467.3628814259</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-153356.9787814259</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-153519.4787814259</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-153469.4787814259</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-165039.4787814259</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-164989.4787814259</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-170739.4787814259</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-178694.2720814259</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-225017.4714814259</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-220806.3740814259</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-220756.3740814259</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1140470.909481426</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1140470.909481426</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1141494.259081426</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
